--- a/natmiOut/OldD2/LR-pairs_lrc2p/Crtam-Cadm1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Crtam-Cadm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Crtam</t>
   </si>
   <si>
@@ -91,10 +94,10 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.281312383073693</v>
+        <v>0.3790456666666667</v>
       </c>
       <c r="H2">
-        <v>0.281312383073693</v>
+        <v>1.137137</v>
       </c>
       <c r="I2">
-        <v>0.5306451021479474</v>
+        <v>0.5489377981653591</v>
       </c>
       <c r="J2">
-        <v>0.5306451021479474</v>
+        <v>0.5548346772344164</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.469036792955521</v>
+        <v>0.4712275</v>
       </c>
       <c r="N2">
-        <v>0.469036792955521</v>
+        <v>0.942455</v>
       </c>
       <c r="O2">
-        <v>0.02579828408899975</v>
+        <v>0.01998177645647621</v>
       </c>
       <c r="P2">
-        <v>0.02579828408899975</v>
+        <v>0.01489035545836662</v>
       </c>
       <c r="Q2">
-        <v>0.1319458579755599</v>
+        <v>0.1786167418891667</v>
       </c>
       <c r="R2">
-        <v>0.1319458579755599</v>
+        <v>1.071700451335</v>
       </c>
       <c r="S2">
-        <v>0.01368973309564903</v>
+        <v>0.01096875237145047</v>
       </c>
       <c r="T2">
-        <v>0.01368973309564903</v>
+        <v>0.008261685564648572</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.281312383073693</v>
+        <v>0.3790456666666667</v>
       </c>
       <c r="H3">
-        <v>0.281312383073693</v>
+        <v>1.137137</v>
       </c>
       <c r="I3">
-        <v>0.5306451021479474</v>
+        <v>0.5489377981653591</v>
       </c>
       <c r="J3">
-        <v>0.5306451021479474</v>
+        <v>0.5548346772344164</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.2086511191429</v>
+        <v>0.021124</v>
       </c>
       <c r="N3">
-        <v>3.2086511191429</v>
+        <v>0.063372</v>
       </c>
       <c r="O3">
-        <v>0.1764844343927308</v>
+        <v>0.0008957351722185219</v>
       </c>
       <c r="P3">
-        <v>0.1764844343927308</v>
+        <v>0.001001248448050686</v>
       </c>
       <c r="Q3">
-        <v>0.9026332927781613</v>
+        <v>0.008006960662666667</v>
       </c>
       <c r="R3">
-        <v>0.9026332927781613</v>
+        <v>0.072062645964</v>
       </c>
       <c r="S3">
-        <v>0.09365060071585336</v>
+        <v>0.0004917028931769042</v>
       </c>
       <c r="T3">
-        <v>0.09365060071585336</v>
+        <v>0.0005555273595056626</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.281312383073693</v>
+        <v>0.3790456666666667</v>
       </c>
       <c r="H4">
-        <v>0.281312383073693</v>
+        <v>1.137137</v>
       </c>
       <c r="I4">
-        <v>0.5306451021479474</v>
+        <v>0.5489377981653591</v>
       </c>
       <c r="J4">
-        <v>0.5306451021479474</v>
+        <v>0.5548346772344164</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.14883143340737</v>
+        <v>7.105631</v>
       </c>
       <c r="N4">
-        <v>7.14883143340737</v>
+        <v>21.316893</v>
       </c>
       <c r="O4">
-        <v>0.3932049404083828</v>
+        <v>0.3013048479220918</v>
       </c>
       <c r="P4">
-        <v>0.3932049404083828</v>
+        <v>0.3367971033502578</v>
       </c>
       <c r="Q4">
-        <v>2.011054806723952</v>
+        <v>2.693358639482333</v>
       </c>
       <c r="R4">
-        <v>2.011054806723952</v>
+        <v>24.240227755341</v>
       </c>
       <c r="S4">
-        <v>0.2086522757680839</v>
+        <v>0.1653976197949015</v>
       </c>
       <c r="T4">
-        <v>0.2086522757680839</v>
+        <v>0.1868667121308266</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.281312383073693</v>
+        <v>0.3790456666666667</v>
       </c>
       <c r="H5">
-        <v>0.281312383073693</v>
+        <v>1.137137</v>
       </c>
       <c r="I5">
-        <v>0.5306451021479474</v>
+        <v>0.5489377981653591</v>
       </c>
       <c r="J5">
-        <v>0.5306451021479474</v>
+        <v>0.5548346772344164</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.16930972042102</v>
+        <v>7.767127666666666</v>
       </c>
       <c r="N5">
-        <v>1.16930972042102</v>
+        <v>23.301383</v>
       </c>
       <c r="O5">
-        <v>0.06431517699361172</v>
+        <v>0.3293547357576649</v>
       </c>
       <c r="P5">
-        <v>0.06431517699361172</v>
+        <v>0.3681511324588878</v>
       </c>
       <c r="Q5">
-        <v>0.3289413040028709</v>
+        <v>2.944096084496778</v>
       </c>
       <c r="R5">
-        <v>0.3289413040028709</v>
+        <v>26.496864760471</v>
       </c>
       <c r="S5">
-        <v>0.03412853366543841</v>
+        <v>0.1807952634621462</v>
       </c>
       <c r="T5">
-        <v>0.03412853366543841</v>
+        <v>0.2042630147513119</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.281312383073693</v>
+        <v>0.3790456666666667</v>
       </c>
       <c r="H6">
-        <v>0.281312383073693</v>
+        <v>1.137137</v>
       </c>
       <c r="I6">
-        <v>0.5306451021479474</v>
+        <v>0.5489377981653591</v>
       </c>
       <c r="J6">
-        <v>0.5306451021479474</v>
+        <v>0.5548346772344164</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.18510077178731</v>
+        <v>1.233373</v>
       </c>
       <c r="N6">
-        <v>6.18510077178731</v>
+        <v>3.700119</v>
       </c>
       <c r="O6">
-        <v>0.3401971641162749</v>
+        <v>0.05229954443120029</v>
       </c>
       <c r="P6">
-        <v>0.3401971641162749</v>
+        <v>0.05846017809683861</v>
       </c>
       <c r="Q6">
-        <v>1.739945437662426</v>
+        <v>0.4675046910336667</v>
       </c>
       <c r="R6">
-        <v>1.739945437662426</v>
+        <v>4.207542219303</v>
       </c>
       <c r="S6">
-        <v>0.1805239589029227</v>
+        <v>0.02870919676511446</v>
       </c>
       <c r="T6">
-        <v>0.1805239589029227</v>
+        <v>0.03243573404542595</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.248820434387536</v>
+        <v>0.3790456666666667</v>
       </c>
       <c r="H7">
-        <v>0.248820434387536</v>
+        <v>1.137137</v>
       </c>
       <c r="I7">
-        <v>0.4693548978520526</v>
+        <v>0.5489377981653591</v>
       </c>
       <c r="J7">
-        <v>0.4693548978520526</v>
+        <v>0.5548346772344164</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.469036792955521</v>
+        <v>6.98438</v>
       </c>
       <c r="N7">
-        <v>0.469036792955521</v>
+        <v>13.96876</v>
       </c>
       <c r="O7">
-        <v>0.02579828408899975</v>
+        <v>0.2961633602603484</v>
       </c>
       <c r="P7">
-        <v>0.02579828408899975</v>
+        <v>0.2206999821875986</v>
       </c>
       <c r="Q7">
-        <v>0.1167059385669295</v>
+        <v>2.647398973353333</v>
       </c>
       <c r="R7">
-        <v>0.1167059385669295</v>
+        <v>15.88439384012</v>
       </c>
       <c r="S7">
-        <v>0.01210855099335071</v>
+        <v>0.1625752628785697</v>
       </c>
       <c r="T7">
-        <v>0.01210855099335071</v>
+        <v>0.1224520033826977</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.248820434387536</v>
+        <v>0.2894453333333333</v>
       </c>
       <c r="H8">
-        <v>0.248820434387536</v>
+        <v>0.868336</v>
       </c>
       <c r="I8">
-        <v>0.4693548978520526</v>
+        <v>0.4191776821154489</v>
       </c>
       <c r="J8">
-        <v>0.4693548978520526</v>
+        <v>0.4236806332843133</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.2086511191429</v>
+        <v>0.4712275</v>
       </c>
       <c r="N8">
-        <v>3.2086511191429</v>
+        <v>0.942455</v>
       </c>
       <c r="O8">
-        <v>0.1764844343927308</v>
+        <v>0.01998177645647621</v>
       </c>
       <c r="P8">
-        <v>0.1764844343927308</v>
+        <v>0.01489035545836662</v>
       </c>
       <c r="Q8">
-        <v>0.7983779652631899</v>
+        <v>0.1363946008133333</v>
       </c>
       <c r="R8">
-        <v>0.7983779652631899</v>
+        <v>0.81836760488</v>
       </c>
       <c r="S8">
-        <v>0.08283383367687745</v>
+        <v>0.008375914739574749</v>
       </c>
       <c r="T8">
-        <v>0.08283383367687745</v>
+        <v>0.0063087552304293</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.248820434387536</v>
+        <v>0.2894453333333333</v>
       </c>
       <c r="H9">
-        <v>0.248820434387536</v>
+        <v>0.868336</v>
       </c>
       <c r="I9">
-        <v>0.4693548978520526</v>
+        <v>0.4191776821154489</v>
       </c>
       <c r="J9">
-        <v>0.4693548978520526</v>
+        <v>0.4236806332843133</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>7.14883143340737</v>
+        <v>0.021124</v>
       </c>
       <c r="N9">
-        <v>7.14883143340737</v>
+        <v>0.063372</v>
       </c>
       <c r="O9">
-        <v>0.3932049404083828</v>
+        <v>0.0008957351722185219</v>
       </c>
       <c r="P9">
-        <v>0.3932049404083828</v>
+        <v>0.001001248448050686</v>
       </c>
       <c r="Q9">
-        <v>1.778775342623693</v>
+        <v>0.006114243221333334</v>
       </c>
       <c r="R9">
-        <v>1.778775342623693</v>
+        <v>0.05502818899199999</v>
       </c>
       <c r="S9">
-        <v>0.184552664640299</v>
+        <v>0.0003754721932798425</v>
       </c>
       <c r="T9">
-        <v>0.184552664640299</v>
+        <v>0.0004242095765450505</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.248820434387536</v>
+        <v>0.2894453333333333</v>
       </c>
       <c r="H10">
-        <v>0.248820434387536</v>
+        <v>0.868336</v>
       </c>
       <c r="I10">
-        <v>0.4693548978520526</v>
+        <v>0.4191776821154489</v>
       </c>
       <c r="J10">
-        <v>0.4693548978520526</v>
+        <v>0.4236806332843133</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.16930972042102</v>
+        <v>7.105631</v>
       </c>
       <c r="N10">
-        <v>1.16930972042102</v>
+        <v>21.316893</v>
       </c>
       <c r="O10">
-        <v>0.06431517699361172</v>
+        <v>0.3013048479220918</v>
       </c>
       <c r="P10">
-        <v>0.06431517699361172</v>
+        <v>0.3367971033502578</v>
       </c>
       <c r="Q10">
-        <v>0.2909481525687265</v>
+        <v>2.056691733338667</v>
       </c>
       <c r="R10">
-        <v>0.2909481525687265</v>
+        <v>18.510225600048</v>
       </c>
       <c r="S10">
-        <v>0.03018664332817332</v>
+        <v>0.1263002677621303</v>
       </c>
       <c r="T10">
-        <v>0.03018664332817332</v>
+        <v>0.1426944100357595</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,557 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.2894453333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.868336</v>
+      </c>
+      <c r="I11">
+        <v>0.4191776821154489</v>
+      </c>
+      <c r="J11">
+        <v>0.4236806332843133</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.767127666666666</v>
+      </c>
+      <c r="N11">
+        <v>23.301383</v>
+      </c>
+      <c r="O11">
+        <v>0.3293547357576649</v>
+      </c>
+      <c r="P11">
+        <v>0.3681511324588878</v>
+      </c>
+      <c r="Q11">
+        <v>2.248158856520889</v>
+      </c>
+      <c r="R11">
+        <v>20.233429708688</v>
+      </c>
+      <c r="S11">
+        <v>0.1380581547286441</v>
+      </c>
+      <c r="T11">
+        <v>0.1559785049445186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2894453333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.868336</v>
+      </c>
+      <c r="I12">
+        <v>0.4191776821154489</v>
+      </c>
+      <c r="J12">
+        <v>0.4236806332843133</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.233373</v>
+      </c>
+      <c r="N12">
+        <v>3.700119</v>
+      </c>
+      <c r="O12">
+        <v>0.05229954443120029</v>
+      </c>
+      <c r="P12">
+        <v>0.05846017809683861</v>
+      </c>
+      <c r="Q12">
+        <v>0.3569940591093334</v>
+      </c>
+      <c r="R12">
+        <v>3.212946531984</v>
+      </c>
+      <c r="S12">
+        <v>0.02192280181036448</v>
+      </c>
+      <c r="T12">
+        <v>0.02476844527798232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2894453333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.868336</v>
+      </c>
+      <c r="I13">
+        <v>0.4191776821154489</v>
+      </c>
+      <c r="J13">
+        <v>0.4236806332843133</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.98438</v>
+      </c>
+      <c r="N13">
+        <v>13.96876</v>
+      </c>
+      <c r="O13">
+        <v>0.2961633602603484</v>
+      </c>
+      <c r="P13">
+        <v>0.2206999821875986</v>
+      </c>
+      <c r="Q13">
+        <v>2.021596197226667</v>
+      </c>
+      <c r="R13">
+        <v>12.12957718336</v>
+      </c>
+      <c r="S13">
+        <v>0.1241450708814555</v>
+      </c>
+      <c r="T13">
+        <v>0.09350630821907845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.0220165</v>
+      </c>
+      <c r="H14">
+        <v>0.044033</v>
+      </c>
+      <c r="I14">
+        <v>0.03188451971919205</v>
+      </c>
+      <c r="J14">
+        <v>0.02148468948127012</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.4712275</v>
+      </c>
+      <c r="N14">
+        <v>0.942455</v>
+      </c>
+      <c r="O14">
+        <v>0.01998177645647621</v>
+      </c>
+      <c r="P14">
+        <v>0.01489035545836662</v>
+      </c>
+      <c r="Q14">
+        <v>0.01037478025375</v>
+      </c>
+      <c r="R14">
+        <v>0.041499121015</v>
+      </c>
+      <c r="S14">
+        <v>0.0006371093454510033</v>
+      </c>
+      <c r="T14">
+        <v>0.0003199146632887423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.248820434387536</v>
-      </c>
-      <c r="H11">
-        <v>0.248820434387536</v>
-      </c>
-      <c r="I11">
-        <v>0.4693548978520526</v>
-      </c>
-      <c r="J11">
-        <v>0.4693548978520526</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>6.18510077178731</v>
-      </c>
-      <c r="N11">
-        <v>6.18510077178731</v>
-      </c>
-      <c r="O11">
-        <v>0.3401971641162749</v>
-      </c>
-      <c r="P11">
-        <v>0.3401971641162749</v>
-      </c>
-      <c r="Q11">
-        <v>1.538979460766803</v>
-      </c>
-      <c r="R11">
-        <v>1.538979460766803</v>
-      </c>
-      <c r="S11">
-        <v>0.1596732052133522</v>
-      </c>
-      <c r="T11">
-        <v>0.1596732052133522</v>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.0220165</v>
+      </c>
+      <c r="H15">
+        <v>0.044033</v>
+      </c>
+      <c r="I15">
+        <v>0.03188451971919205</v>
+      </c>
+      <c r="J15">
+        <v>0.02148468948127012</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.021124</v>
+      </c>
+      <c r="N15">
+        <v>0.063372</v>
+      </c>
+      <c r="O15">
+        <v>0.0008957351722185219</v>
+      </c>
+      <c r="P15">
+        <v>0.001001248448050686</v>
+      </c>
+      <c r="Q15">
+        <v>0.000465076546</v>
+      </c>
+      <c r="R15">
+        <v>0.002790459276</v>
+      </c>
+      <c r="S15">
+        <v>2.856008576177535E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.15115119999726E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.0220165</v>
+      </c>
+      <c r="H16">
+        <v>0.044033</v>
+      </c>
+      <c r="I16">
+        <v>0.03188451971919205</v>
+      </c>
+      <c r="J16">
+        <v>0.02148468948127012</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.105631</v>
+      </c>
+      <c r="N16">
+        <v>21.316893</v>
+      </c>
+      <c r="O16">
+        <v>0.3013048479220918</v>
+      </c>
+      <c r="P16">
+        <v>0.3367971033502578</v>
+      </c>
+      <c r="Q16">
+        <v>0.1564411249115</v>
+      </c>
+      <c r="R16">
+        <v>0.9386467494690001</v>
+      </c>
+      <c r="S16">
+        <v>0.009606960365060098</v>
+      </c>
+      <c r="T16">
+        <v>0.007235981183671527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.0220165</v>
+      </c>
+      <c r="H17">
+        <v>0.044033</v>
+      </c>
+      <c r="I17">
+        <v>0.03188451971919205</v>
+      </c>
+      <c r="J17">
+        <v>0.02148468948127012</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.767127666666666</v>
+      </c>
+      <c r="N17">
+        <v>23.301383</v>
+      </c>
+      <c r="O17">
+        <v>0.3293547357576649</v>
+      </c>
+      <c r="P17">
+        <v>0.3681511324588878</v>
+      </c>
+      <c r="Q17">
+        <v>0.1710049662731667</v>
+      </c>
+      <c r="R17">
+        <v>1.026029797639</v>
+      </c>
+      <c r="S17">
+        <v>0.01050131756687455</v>
+      </c>
+      <c r="T17">
+        <v>0.007909612763057147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.0220165</v>
+      </c>
+      <c r="H18">
+        <v>0.044033</v>
+      </c>
+      <c r="I18">
+        <v>0.03188451971919205</v>
+      </c>
+      <c r="J18">
+        <v>0.02148468948127012</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.233373</v>
+      </c>
+      <c r="N18">
+        <v>3.700119</v>
+      </c>
+      <c r="O18">
+        <v>0.05229954443120029</v>
+      </c>
+      <c r="P18">
+        <v>0.05846017809683861</v>
+      </c>
+      <c r="Q18">
+        <v>0.0271545566545</v>
+      </c>
+      <c r="R18">
+        <v>0.162927339927</v>
+      </c>
+      <c r="S18">
+        <v>0.001667545855721366</v>
+      </c>
+      <c r="T18">
+        <v>0.001255998773430326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.0220165</v>
+      </c>
+      <c r="H19">
+        <v>0.044033</v>
+      </c>
+      <c r="I19">
+        <v>0.03188451971919205</v>
+      </c>
+      <c r="J19">
+        <v>0.02148468948127012</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.98438</v>
+      </c>
+      <c r="N19">
+        <v>13.96876</v>
+      </c>
+      <c r="O19">
+        <v>0.2961633602603484</v>
+      </c>
+      <c r="P19">
+        <v>0.2206999821875986</v>
+      </c>
+      <c r="Q19">
+        <v>0.15377160227</v>
+      </c>
+      <c r="R19">
+        <v>0.61508640908</v>
+      </c>
+      <c r="S19">
+        <v>0.009443026500323257</v>
+      </c>
+      <c r="T19">
+        <v>0.004741670585822402</v>
       </c>
     </row>
   </sheetData>
